--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-756993.0774974172</v>
+        <v>-757429.3931718639</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>231.4934047266142</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -674,10 +674,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>164.6813109335101</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,13 +744,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -789,7 +789,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>95.21495915961557</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.3044784685911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.69771951011538</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>147.8649255692296</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.9942348178784299</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>387.1663118379145</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -987,13 +987,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>121.302648179002</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>175.243679956356</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>139.0040357308909</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>60.70050068014598</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>238.8875698034524</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>117.3679507061269</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>85.90949304562099</v>
       </c>
       <c r="C9" t="n">
-        <v>134.790131688556</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1227,7 +1227,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>145.4025650447009</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>76.21326417986977</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>298.2086467078061</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>286.2199636654878</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100158</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>298.9434052799213</v>
@@ -1385,10 +1385,10 @@
         <v>320.048489265321</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825905</v>
+        <v>79.19456938825907</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091668</v>
+        <v>93.4622282009167</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>130.2208993912661</v>
       </c>
       <c r="U11" t="n">
-        <v>128.1884022948573</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>207.7228828711018</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>145.521144745952</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050097</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250313</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790361</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34.56194260974208</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126145</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944776</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.3360937307956</v>
+        <v>75.33609373079561</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831536</v>
+        <v>50.86655653831538</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673269</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
-        <v>138.9527062374451</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
         <v>191.400380052742</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.43410066320097</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>298.2086467078061</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654879</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2012677100158</v>
       </c>
       <c r="E14" t="n">
         <v>298.9434052799213</v>
@@ -1622,7 +1622,7 @@
         <v>320.048489265321</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>43.28410159474984</v>
       </c>
       <c r="I14" t="n">
         <v>79.19456938825908</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.2208993912661</v>
       </c>
       <c r="U14" t="n">
         <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479852</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
-        <v>197.4992289586463</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1765,10 @@
         <v>89.82535758250316</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790364</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548203</v>
       </c>
       <c r="E16" t="n">
         <v>58.59446668126148</v>
@@ -1780,7 +1780,7 @@
         <v>75.33609373079562</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348605</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>50.86655653831539</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.1321061567327</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>4.264453843737755</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
@@ -1828,10 +1828,10 @@
         <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.79482334297292</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>243.8806136404744</v>
       </c>
       <c r="G17" t="n">
-        <v>245.8138815378969</v>
+        <v>245.8138815378981</v>
       </c>
       <c r="H17" t="n">
         <v>163.3639965162069</v>
@@ -1901,7 +1901,7 @@
         <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
-        <v>167.4804162205623</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W17" t="n">
         <v>192.780515698518</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>84.3729875932661</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2226,7 +2226,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.0306218014139</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612606</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C26" t="n">
         <v>249.4533522189423</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634703</v>
+        <v>240.4346562634702</v>
       </c>
       <c r="E26" t="n">
         <v>262.1767938333758</v>
       </c>
       <c r="F26" t="n">
-        <v>281.348609921353</v>
+        <v>281.3486099213529</v>
       </c>
       <c r="G26" t="n">
         <v>283.2818778187755</v>
@@ -2573,7 +2573,7 @@
         <v>200.8319927970854</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171357</v>
+        <v>42.42795794171352</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.6956167543712</v>
+        <v>56.69561675437114</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472056</v>
+        <v>93.45428794472051</v>
       </c>
       <c r="U26" t="n">
         <v>123.6754140615675</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014397</v>
+        <v>204.9484125014396</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793966</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X26" t="n">
         <v>249.5487702121432</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.945368008342</v>
+        <v>260.9453680083419</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914448</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595765</v>
+        <v>53.05874613595759</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135813</v>
+        <v>39.25874098135807</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893652</v>
+        <v>22.88010537893646</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471597</v>
+        <v>21.82785523471591</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290228</v>
+        <v>22.29477956290222</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228425011</v>
+        <v>38.56948228425006</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694053</v>
+        <v>29.11784990694048</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176988</v>
+        <v>14.09994509176983</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018719</v>
+        <v>19.36549471018714</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877094</v>
+        <v>82.91159610877088</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908996</v>
+        <v>102.1860947908995</v>
       </c>
       <c r="U28" t="n">
         <v>155.6572682542127</v>
@@ -2773,13 +2773,13 @@
         <v>129.4668825355832</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061965</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X28" t="n">
         <v>100.2788706019996</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.1537383580673</v>
+        <v>91.15373835806724</v>
       </c>
     </row>
     <row r="29">
@@ -2877,13 +2877,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>130.9922385581939</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914448</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
@@ -3111,7 +3111,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
@@ -3171,7 +3171,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>181.3723269554797</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -3408,7 +3408,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554799</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3648,7 +3648,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>143.259757067945</v>
       </c>
       <c r="C42" t="n">
-        <v>145.5211447459511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318832</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.3827926133</v>
+        <v>1033.332714949632</v>
       </c>
       <c r="C2" t="n">
-        <v>798.5510706672254</v>
+        <v>1033.332714949632</v>
       </c>
       <c r="D2" t="n">
-        <v>798.5510706672254</v>
+        <v>1033.332714949632</v>
       </c>
       <c r="E2" t="n">
-        <v>798.5510706672254</v>
+        <v>638.5469950557386</v>
       </c>
       <c r="F2" t="n">
-        <v>788.4402840177999</v>
+        <v>628.4362084063131</v>
       </c>
       <c r="G2" t="n">
-        <v>372.3362974719878</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929709</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="I2" t="n">
         <v>39.51502306929709</v>
       </c>
       <c r="J2" t="n">
-        <v>39.51502306929709</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K2" t="n">
-        <v>279.6553951140799</v>
+        <v>228.7015208236807</v>
       </c>
       <c r="L2" t="n">
-        <v>627.5407681990262</v>
+        <v>576.586893908627</v>
       </c>
       <c r="M2" t="n">
-        <v>1020.779934452114</v>
+        <v>969.8260601617148</v>
       </c>
       <c r="N2" t="n">
-        <v>1399.11129313983</v>
+        <v>1348.157418849431</v>
       </c>
       <c r="O2" t="n">
-        <v>1704.115877612664</v>
+        <v>1653.162003322264</v>
       </c>
       <c r="P2" t="n">
-        <v>1932.272774068717</v>
+        <v>1881.318899778317</v>
       </c>
       <c r="Q2" t="n">
         <v>1975.751153464854</v>
@@ -4358,22 +4358,22 @@
         <v>1975.751153464854</v>
       </c>
       <c r="T2" t="n">
-        <v>1751.392207195866</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="U2" t="n">
-        <v>1751.392207195866</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="V2" t="n">
-        <v>1414.412933091807</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="W2" t="n">
-        <v>1414.412933091807</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="X2" t="n">
-        <v>1032.3827926133</v>
+        <v>1593.721012986348</v>
       </c>
       <c r="Y2" t="n">
-        <v>1032.3827926133</v>
+        <v>1427.376254467651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>771.7997736282124</v>
+        <v>790.0992835946256</v>
       </c>
       <c r="C3" t="n">
-        <v>610.0961008691671</v>
+        <v>628.3956108355803</v>
       </c>
       <c r="D3" t="n">
-        <v>471.2574638593792</v>
+        <v>489.5569738257925</v>
       </c>
       <c r="E3" t="n">
-        <v>471.2574638593792</v>
+        <v>342.5289638826637</v>
       </c>
       <c r="F3" t="n">
-        <v>336.5636658092535</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G3" t="n">
         <v>207.8351658325381</v>
@@ -4416,13 +4416,13 @@
         <v>695.0815673327076</v>
       </c>
       <c r="M3" t="n">
-        <v>936.7811624125579</v>
+        <v>1123.683653619412</v>
       </c>
       <c r="N3" t="n">
-        <v>1425.779572895109</v>
+        <v>1123.683653619412</v>
       </c>
       <c r="O3" t="n">
-        <v>1817.97952367926</v>
+        <v>1515.883604403563</v>
       </c>
       <c r="P3" t="n">
         <v>1817.97952367926</v>
@@ -4437,22 +4437,22 @@
         <v>1763.16739757254</v>
       </c>
       <c r="T3" t="n">
-        <v>1763.16739757254</v>
+        <v>1574.482293738526</v>
       </c>
       <c r="U3" t="n">
-        <v>1544.672605170851</v>
+        <v>1355.987501336836</v>
       </c>
       <c r="V3" t="n">
-        <v>1316.276982619185</v>
+        <v>1127.59187878517</v>
       </c>
       <c r="W3" t="n">
-        <v>1074.961113852495</v>
+        <v>886.2760100184797</v>
       </c>
       <c r="X3" t="n">
-        <v>1074.961113852495</v>
+        <v>790.0992835946256</v>
       </c>
       <c r="Y3" t="n">
-        <v>931.2192164094733</v>
+        <v>790.0992835946256</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="C4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="D4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="E4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="H4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="I4" t="n">
         <v>39.51502306929709</v>
@@ -4507,31 +4507,31 @@
         <v>571.5742683152296</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.0369269689186</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="R4" t="n">
-        <v>533.0369269689186</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="S4" t="n">
-        <v>533.0369269689186</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="T4" t="n">
-        <v>533.0369269689186</v>
+        <v>188.8735337452866</v>
       </c>
       <c r="U4" t="n">
-        <v>533.0369269689186</v>
+        <v>188.8735337452866</v>
       </c>
       <c r="V4" t="n">
-        <v>272.3016225273412</v>
+        <v>188.8735337452866</v>
       </c>
       <c r="W4" t="n">
-        <v>272.3016225273412</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="X4" t="n">
-        <v>272.3016225273412</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.3016225273412</v>
+        <v>39.51502306929709</v>
       </c>
     </row>
     <row r="5">
@@ -4583,34 +4583,34 @@
         <v>1776.114421885469</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778317</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="Q5" t="n">
         <v>1975.751153464854</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464854</v>
+        <v>1885.112866960708</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464854</v>
+        <v>1884.108589366891</v>
       </c>
       <c r="T5" t="n">
-        <v>1751.392207195866</v>
+        <v>1659.749643097902</v>
       </c>
       <c r="U5" t="n">
-        <v>1751.392207195866</v>
+        <v>1404.864306811897</v>
       </c>
       <c r="V5" t="n">
-        <v>1414.412933091807</v>
+        <v>1404.864306811897</v>
       </c>
       <c r="W5" t="n">
-        <v>1414.412933091807</v>
+        <v>1404.864306811897</v>
       </c>
       <c r="X5" t="n">
-        <v>1414.412933091807</v>
+        <v>1022.83416633339</v>
       </c>
       <c r="Y5" t="n">
-        <v>1023.335850427247</v>
+        <v>629.2923109092278</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.7791408313848</v>
+        <v>818.8899261180392</v>
       </c>
       <c r="C6" t="n">
-        <v>460.0754680723394</v>
+        <v>657.1862533589939</v>
       </c>
       <c r="D6" t="n">
-        <v>321.2368310625515</v>
+        <v>518.347616349206</v>
       </c>
       <c r="E6" t="n">
-        <v>174.2088211194227</v>
+        <v>371.3196064060772</v>
       </c>
       <c r="F6" t="n">
-        <v>39.51502306929709</v>
+        <v>236.6258083559515</v>
       </c>
       <c r="G6" t="n">
-        <v>39.51502306929709</v>
+        <v>107.8973083792361</v>
       </c>
       <c r="H6" t="n">
-        <v>39.51502306929709</v>
+        <v>107.8973083792361</v>
       </c>
       <c r="I6" t="n">
         <v>39.51502306929709</v>
@@ -4650,16 +4650,16 @@
         <v>329.2597221625919</v>
       </c>
       <c r="L6" t="n">
-        <v>634.6852431368607</v>
+        <v>451.7478089023315</v>
       </c>
       <c r="M6" t="n">
-        <v>634.6852431368607</v>
+        <v>936.7811624125579</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.683653619412</v>
+        <v>1425.779572895109</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403563</v>
+        <v>1817.97952367926</v>
       </c>
       <c r="P6" t="n">
         <v>1817.97952367926</v>
@@ -4674,22 +4674,22 @@
         <v>1822.951666477595</v>
       </c>
       <c r="T6" t="n">
-        <v>1700.423739024057</v>
+        <v>1822.951666477595</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.928946622367</v>
+        <v>1822.951666477595</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.533324070701</v>
+        <v>1594.556043925929</v>
       </c>
       <c r="W6" t="n">
-        <v>1012.217455304011</v>
+        <v>1353.240175159239</v>
       </c>
       <c r="X6" t="n">
-        <v>814.300467181806</v>
+        <v>1155.323187037033</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.7791408313848</v>
+        <v>978.3093688993001</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.8286601199496</v>
+        <v>349.5391095075066</v>
       </c>
       <c r="C7" t="n">
-        <v>100.8286601199496</v>
+        <v>179.9231399691869</v>
       </c>
       <c r="D7" t="n">
-        <v>100.8286601199496</v>
+        <v>179.9231399691869</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8286601199496</v>
+        <v>179.9231399691869</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8286601199496</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="G7" t="n">
-        <v>100.8286601199496</v>
+        <v>39.51502306929709</v>
       </c>
       <c r="H7" t="n">
         <v>39.51502306929709</v>
@@ -4756,19 +4756,19 @@
         <v>571.5742683152296</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3840288043294</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="V7" t="n">
-        <v>284.3840288043294</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="W7" t="n">
-        <v>284.3840288043294</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="X7" t="n">
-        <v>284.3840288043294</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="Y7" t="n">
-        <v>284.3840288043294</v>
+        <v>349.5391095075066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1013.735302608323</v>
+        <v>1464.297328295449</v>
       </c>
       <c r="C8" t="n">
-        <v>631.8015439411299</v>
+        <v>1082.363569628256</v>
       </c>
       <c r="D8" t="n">
-        <v>631.8015439411299</v>
+        <v>709.5396048554796</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4832,22 +4832,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1758.300373229228</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>1758.300373229228</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W8" t="n">
-        <v>1395.765443086829</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="X8" t="n">
-        <v>1013.735302608323</v>
+        <v>1464.297328295449</v>
       </c>
       <c r="Y8" t="n">
-        <v>1013.735302608323</v>
+        <v>1464.297328295449</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>680.3746967613888</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C9" t="n">
-        <v>544.2230485911302</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D9" t="n">
-        <v>405.3844115813423</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
         <v>42.02425610119923</v>
@@ -4884,22 +4884,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.9045481628106</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="C10" t="n">
-        <v>340.9045481628106</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="D10" t="n">
-        <v>194.0332703398804</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>340.9045481628106</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>340.9045481628106</v>
+        <v>497.1004062159501</v>
       </c>
       <c r="V10" t="n">
-        <v>340.9045481628106</v>
+        <v>497.1004062159501</v>
       </c>
       <c r="W10" t="n">
-        <v>340.9045481628106</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="X10" t="n">
-        <v>340.9045481628106</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.9045481628106</v>
+        <v>210.9440047333492</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1597.667903912638</v>
+        <v>1366.779107661972</v>
       </c>
       <c r="C11" t="n">
-        <v>1597.667903912638</v>
+        <v>1077.668033252389</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.66662339747</v>
+        <v>1077.668033252389</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.703587761186</v>
+        <v>775.7049976161045</v>
       </c>
       <c r="F11" t="n">
-        <v>694.3750813289656</v>
+        <v>454.3764911838838</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407626</v>
+        <v>131.0951888956808</v>
       </c>
       <c r="H11" t="n">
         <v>131.0951888956808</v>
@@ -5039,28 +5039,28 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J11" t="n">
-        <v>214.074731475774</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>454.2151035205567</v>
+        <v>441.9411058614155</v>
       </c>
       <c r="L11" t="n">
-        <v>882.9429200254124</v>
+        <v>789.8264789463617</v>
       </c>
       <c r="M11" t="n">
-        <v>1367.157599119383</v>
+        <v>1183.06564519945</v>
       </c>
       <c r="N11" t="n">
-        <v>1745.488957807099</v>
+        <v>1652.372516728048</v>
       </c>
       <c r="O11" t="n">
-        <v>2141.469055120815</v>
+        <v>2048.352614041764</v>
       </c>
       <c r="P11" t="n">
-        <v>2460.601464417751</v>
+        <v>2367.4850233387</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104288</v>
+        <v>2552.89278986612</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104288</v>
@@ -5072,19 +5072,19 @@
         <v>2329.091164980871</v>
       </c>
       <c r="U11" t="n">
-        <v>2199.607930339601</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="V11" t="n">
-        <v>2199.607930339601</v>
+        <v>1957.20741914328</v>
       </c>
       <c r="W11" t="n">
-        <v>2199.607930339601</v>
+        <v>1957.20741914328</v>
       </c>
       <c r="X11" t="n">
-        <v>2199.607930339601</v>
+        <v>1667.999962922383</v>
       </c>
       <c r="Y11" t="n">
-        <v>1898.888759173048</v>
+        <v>1667.999962922383</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C12" t="n">
         <v>768.7097621050845</v>
@@ -5118,52 +5118,52 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J12" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O12" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P12" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q12" t="n">
         <v>2555.033718104288</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211974</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374.2156848547361</v>
+        <v>213.4891520174929</v>
       </c>
       <c r="C13" t="n">
-        <v>297.4223995740254</v>
+        <v>213.4891520174929</v>
       </c>
       <c r="D13" t="n">
-        <v>297.4223995740254</v>
+        <v>178.5780988763393</v>
       </c>
       <c r="E13" t="n">
-        <v>238.2360695929532</v>
+        <v>178.5780988763393</v>
       </c>
       <c r="F13" t="n">
         <v>178.5780988763393</v>
@@ -5197,22 +5197,22 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.214087664999</v>
       </c>
       <c r="K13" t="n">
         <v>207.793788250525</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916671</v>
+        <v>399.376380491667</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601514</v>
+        <v>608.3453994601512</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506343</v>
+        <v>817.7432540506341</v>
       </c>
       <c r="O13" t="n">
-        <v>1007.182413387207</v>
+        <v>1007.182413387206</v>
       </c>
       <c r="P13" t="n">
         <v>1161.126409956227</v>
@@ -5221,28 +5221,28 @@
         <v>1214.33147454359</v>
       </c>
       <c r="R13" t="n">
-        <v>1214.33147454359</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="S13" t="n">
-        <v>1093.444396204887</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T13" t="n">
-        <v>953.0881272781743</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="U13" t="n">
-        <v>758.7205720248834</v>
+        <v>842.3777438235826</v>
       </c>
       <c r="V13" t="n">
-        <v>758.7205720248834</v>
+        <v>674.4651236396141</v>
       </c>
       <c r="W13" t="n">
-        <v>565.3868547998917</v>
+        <v>481.1314064146222</v>
       </c>
       <c r="X13" t="n">
-        <v>565.3868547998917</v>
+        <v>342.7016265676068</v>
       </c>
       <c r="Y13" t="n">
-        <v>464.9483692815069</v>
+        <v>213.4891520174929</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1077.668033252389</v>
+        <v>1690.501702919311</v>
       </c>
       <c r="C14" t="n">
-        <v>1077.668033252389</v>
+        <v>1401.390628509727</v>
       </c>
       <c r="D14" t="n">
-        <v>1077.668033252389</v>
+        <v>1121.38934799456</v>
       </c>
       <c r="E14" t="n">
-        <v>775.7049976161045</v>
+        <v>819.426312358276</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3764911838838</v>
+        <v>498.0978059260553</v>
       </c>
       <c r="G14" t="n">
-        <v>131.0951888956808</v>
+        <v>174.8165036378523</v>
       </c>
       <c r="H14" t="n">
         <v>131.0951888956808</v>
@@ -5276,22 +5276,22 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>214.0747314757739</v>
       </c>
       <c r="K14" t="n">
-        <v>363.2395906796742</v>
+        <v>454.2151035205567</v>
       </c>
       <c r="L14" t="n">
-        <v>802.1004766055029</v>
+        <v>880.8019917872441</v>
       </c>
       <c r="M14" t="n">
-        <v>1195.339642858591</v>
+        <v>1365.016670881215</v>
       </c>
       <c r="N14" t="n">
-        <v>1664.646514387189</v>
+        <v>1743.34802956893</v>
       </c>
       <c r="O14" t="n">
-        <v>2060.626611700906</v>
+        <v>2139.328126882647</v>
       </c>
       <c r="P14" t="n">
         <v>2367.4850233387</v>
@@ -5306,22 +5306,22 @@
         <v>2555.033718104288</v>
       </c>
       <c r="T14" t="n">
-        <v>2555.033718104288</v>
+        <v>2423.497456092908</v>
       </c>
       <c r="U14" t="n">
-        <v>2392.971066075891</v>
+        <v>2261.434804064511</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.814476229441</v>
+        <v>2261.434804064511</v>
       </c>
       <c r="W14" t="n">
-        <v>1879.102230344651</v>
+        <v>1991.722558179721</v>
       </c>
       <c r="X14" t="n">
-        <v>1679.608059679352</v>
+        <v>1991.722558179721</v>
       </c>
       <c r="Y14" t="n">
-        <v>1378.888888512799</v>
+        <v>1991.722558179721</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J15" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135724</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>363.9723605371427</v>
+        <v>434.4648937693646</v>
       </c>
       <c r="C16" t="n">
-        <v>363.9723605371427</v>
+        <v>357.6716084886539</v>
       </c>
       <c r="D16" t="n">
-        <v>363.9723605371427</v>
+        <v>297.4223995740255</v>
       </c>
       <c r="E16" t="n">
-        <v>304.7860305560705</v>
+        <v>238.2360695929533</v>
       </c>
       <c r="F16" t="n">
-        <v>245.1280598394566</v>
+        <v>178.5780988763394</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0309954649155</v>
+        <v>102.4810345017983</v>
       </c>
       <c r="H16" t="n">
         <v>102.4810345017983</v>
@@ -5443,10 +5443,10 @@
         <v>399.376380491667</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601513</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506342</v>
+        <v>817.7432540506343</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387206</v>
@@ -5458,28 +5458,28 @@
         <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415577</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="S16" t="n">
-        <v>1157.632377415577</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.632377415577</v>
+        <v>1210.023945408501</v>
       </c>
       <c r="U16" t="n">
-        <v>963.2648221622859</v>
+        <v>1015.65639015521</v>
       </c>
       <c r="V16" t="n">
-        <v>795.3522019783175</v>
+        <v>847.7437699712415</v>
       </c>
       <c r="W16" t="n">
-        <v>602.0184847533255</v>
+        <v>654.4100527462496</v>
       </c>
       <c r="X16" t="n">
-        <v>463.5887049063102</v>
+        <v>654.4100527462496</v>
       </c>
       <c r="Y16" t="n">
-        <v>454.7050449639136</v>
+        <v>525.1975781961356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.88781257276</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D17" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478551</v>
       </c>
       <c r="E17" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614942</v>
       </c>
       <c r="F17" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791968</v>
       </c>
       <c r="G17" t="n">
         <v>221.1248745409159</v>
@@ -5516,22 +5516,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1268.831904508741</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N17" t="n">
-        <v>1762.972208997831</v>
+        <v>1598.504434506799</v>
       </c>
       <c r="O17" t="n">
-        <v>2232.444567961697</v>
+        <v>1903.509018979633</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.601464417751</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
         <v>2555.033718104288</v>
@@ -5549,16 +5549,16 @@
         <v>2391.981869702244</v>
       </c>
       <c r="V17" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105718</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.081938470851</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J18" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O18" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P18" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.033718104288</v>
@@ -5671,10 +5671,10 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208575</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672917</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L19" t="n">
         <v>231.5307021686421</v>
@@ -5750,25 +5750,25 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0485364810491</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L20" t="n">
-        <v>826.9339095659954</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.640850310116</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.972208997831</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470665</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P20" t="n">
-        <v>2296.133689926718</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q20" t="n">
         <v>2555.033718104288</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419383</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652228</v>
       </c>
       <c r="H21" t="n">
         <v>119.4829596720248</v>
@@ -5835,7 +5835,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254972</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135724</v>
@@ -5874,7 +5874,7 @@
         <v>1267.641586535708</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="22">
@@ -5896,16 +5896,16 @@
         <v>51.10067436208575</v>
       </c>
       <c r="F22" t="n">
-        <v>66.12215891288228</v>
+        <v>65.91841943632294</v>
       </c>
       <c r="G22" t="n">
-        <v>65.00954678826456</v>
+        <v>64.80580731170521</v>
       </c>
       <c r="H22" t="n">
-        <v>65.00954678826456</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I22" t="n">
-        <v>88.14391746548216</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J22" t="n">
         <v>96.20682289912145</v>
@@ -5987,25 +5987,25 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K23" t="n">
-        <v>403.4153465927301</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>751.3007196776764</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.539885930764</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N23" t="n">
-        <v>1687.339019109512</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O23" t="n">
-        <v>1992.343603582346</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P23" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q23" t="n">
         <v>2479.400528215969</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
         <v>219.4208171253267</v>
@@ -6096,22 +6096,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6206,46 +6206,46 @@
         <v>1386.425607044545</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889525</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133869</v>
+        <v>878.7372736133875</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413132</v>
+        <v>594.5467585413139</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132572</v>
+        <v>308.4034476132571</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283225</v>
+        <v>105.5428488283224</v>
       </c>
       <c r="I26" t="n">
         <v>62.68632565487441</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006426</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183881</v>
+        <v>623.0199010647705</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.833989576297</v>
+        <v>1098.279732322679</v>
       </c>
       <c r="M26" t="n">
-        <v>1625.447614002348</v>
+        <v>1618.89335674873</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.153430863026</v>
+        <v>2124.599173609408</v>
       </c>
       <c r="O26" t="n">
-        <v>2563.532473508822</v>
+        <v>2556.978216255205</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313973</v>
+        <v>2912.509570884221</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173472</v>
+        <v>3134.31628274372</v>
       </c>
       <c r="R26" t="n">
         <v>3134.31628274372</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
-        <v>641.4567763880852</v>
+        <v>626.7441589279807</v>
       </c>
       <c r="E27" t="n">
-        <v>494.4287664449565</v>
+        <v>479.7161489848519</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7349683948308</v>
+        <v>345.0223509347263</v>
       </c>
       <c r="G27" t="n">
         <v>231.0064684181154</v>
@@ -6327,28 +6327,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042415</v>
+        <v>252.6345665042411</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836777</v>
+        <v>212.9792725836774</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291964</v>
+        <v>189.8680550291961</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082712</v>
+        <v>167.8197164082709</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518042</v>
+        <v>145.2997370518041</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374102</v>
+        <v>106.3406640374101</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443995</v>
+        <v>76.92869443443989</v>
       </c>
       <c r="I28" t="n">
         <v>62.68632565487441</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487441</v>
+        <v>131.1986842898677</v>
       </c>
       <c r="K28" t="n">
-        <v>96.29051339951782</v>
+        <v>292.1773302074738</v>
       </c>
       <c r="L28" t="n">
-        <v>324.2720509727399</v>
+        <v>392.7844096077333</v>
       </c>
       <c r="M28" t="n">
-        <v>569.6400152733042</v>
+        <v>615.7205318231447</v>
       </c>
       <c r="N28" t="n">
-        <v>815.4368151958672</v>
+        <v>734.1428735727451</v>
       </c>
       <c r="O28" t="n">
-        <v>1041.274919864519</v>
+        <v>959.9809782413975</v>
       </c>
       <c r="P28" t="n">
-        <v>1150.323920142499</v>
+        <v>1150.323920142498</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142499</v>
+        <v>1150.323920142498</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374633</v>
+        <v>1130.762814374632</v>
       </c>
       <c r="S28" t="n">
         <v>1047.013727396076</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295112</v>
+        <v>943.7954498295105</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363671</v>
+        <v>786.5658859363664</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125456</v>
+        <v>655.7912571125449</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312477007</v>
+        <v>499.5955312477001</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608324</v>
+        <v>398.3037427608318</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708654</v>
+        <v>306.2292595708649</v>
       </c>
     </row>
     <row r="29">
@@ -6473,16 +6473,16 @@
         <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.153430863026</v>
+        <v>2124.599173609408</v>
       </c>
       <c r="O29" t="n">
-        <v>2563.532473508823</v>
+        <v>2556.978216255205</v>
       </c>
       <c r="P29" t="n">
-        <v>2919.063828137839</v>
+        <v>2912.50957088422</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173472</v>
+        <v>3134.31628274372</v>
       </c>
       <c r="R29" t="n">
         <v>3134.31628274372</v>
@@ -6525,10 +6525,10 @@
         <v>626.7441589279807</v>
       </c>
       <c r="E30" t="n">
-        <v>494.4287664449565</v>
+        <v>479.7161489848519</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7349683948308</v>
+        <v>345.0223509347263</v>
       </c>
       <c r="G30" t="n">
         <v>231.0064684181154</v>
@@ -6625,16 +6625,16 @@
         <v>292.1773302074738</v>
       </c>
       <c r="L31" t="n">
-        <v>520.1588677806959</v>
+        <v>392.7844096077333</v>
       </c>
       <c r="M31" t="n">
-        <v>638.1523739082976</v>
+        <v>638.1523739082977</v>
       </c>
       <c r="N31" t="n">
-        <v>883.9491738308607</v>
+        <v>771.9133218262645</v>
       </c>
       <c r="O31" t="n">
-        <v>982.4128203265503</v>
+        <v>870.3769683219541</v>
       </c>
       <c r="P31" t="n">
         <v>1060.719910223055</v>
@@ -6698,25 +6698,25 @@
         <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5838060976603</v>
+        <v>162.642026652194</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443255</v>
+        <v>538.1905678988592</v>
       </c>
       <c r="L32" t="n">
-        <v>1126.425889631154</v>
+        <v>1021.484110185688</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.073225086124</v>
+        <v>1550.131445640658</v>
       </c>
       <c r="N32" t="n">
-        <v>2168.812752975723</v>
+        <v>2063.870973530256</v>
       </c>
       <c r="O32" t="n">
-        <v>2609.225506650439</v>
+        <v>2368.87555800309</v>
       </c>
       <c r="P32" t="n">
-        <v>2867.848792862908</v>
+        <v>2732.440623661026</v>
       </c>
       <c r="Q32" t="n">
         <v>2962.281046549445</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
         <v>638.9475433561831</v>
@@ -6819,10 +6819,10 @@
         <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6856,25 +6856,25 @@
         <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>116.1521360451177</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="K34" t="n">
-        <v>285.1644929916435</v>
+        <v>229.1894495694981</v>
       </c>
       <c r="L34" t="n">
-        <v>385.771572391903</v>
+        <v>348.0011241383837</v>
       </c>
       <c r="M34" t="n">
-        <v>503.7650785195048</v>
+        <v>601.4027994678678</v>
       </c>
       <c r="N34" t="n">
-        <v>622.1874202691051</v>
+        <v>855.2333104193506</v>
       </c>
       <c r="O34" t="n">
-        <v>720.6510667647948</v>
+        <v>953.6969569150402</v>
       </c>
       <c r="P34" t="n">
-        <v>919.027719694815</v>
+        <v>1016.665440643178</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6935,28 +6935,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>643.5163109720806</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>991.4016840570268</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M35" t="n">
-        <v>1384.640850310115</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2067.976793470664</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P35" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
         <v>219.4208171253267</v>
@@ -7056,10 +7056,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7096,7 +7096,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
         <v>231.5307021686421</v>
@@ -7169,19 +7169,19 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479473</v>
+        <v>163.2749745479472</v>
       </c>
       <c r="K38" t="n">
-        <v>403.41534659273</v>
+        <v>567.8831210837624</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776763</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M38" t="n">
-        <v>1309.007660421797</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N38" t="n">
         <v>1851.806793600545</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,25 +7275,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
         <v>1089.832877645391</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54268635500836</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>81.02642599070933</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F40" t="n">
-        <v>96.04791054150586</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="G40" t="n">
-        <v>94.93529841688813</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="H40" t="n">
-        <v>94.93529841688813</v>
+        <v>73.73844678336764</v>
       </c>
       <c r="I40" t="n">
-        <v>96.20682289912145</v>
+        <v>73.73844678336764</v>
       </c>
       <c r="J40" t="n">
         <v>96.20682289912145</v>
@@ -7363,19 +7363,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
         <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556529</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421797</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
         <v>768.7097621050845</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208574</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E43" t="n">
-        <v>66.58441399778671</v>
+        <v>74.031305562744</v>
       </c>
       <c r="F43" t="n">
-        <v>81.60589854858324</v>
+        <v>89.05279011354052</v>
       </c>
       <c r="G43" t="n">
-        <v>80.49328642396551</v>
+        <v>87.9401779889228</v>
       </c>
       <c r="H43" t="n">
-        <v>88.75993133416416</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I43" t="n">
         <v>96.20682289912145</v>
@@ -7600,19 +7600,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>397.6085223761172</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V43" t="n">
-        <v>304.680354442072</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670034</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X43" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972075</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
@@ -7649,25 +7649,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556529</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M44" t="n">
         <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E45" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2132864867035</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2132864867035</v>
+        <v>80.5641709058049</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>79.45155878118717</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>79.45155878118717</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>79.45155878118717</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>79.45155878118717</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686424</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962442</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458446</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415342</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P46" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666899</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>297.1946741574588</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7997,7 +7997,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>224.540927968584</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>359.6249076928019</v>
+        <v>548.4153028512404</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339219</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>294.1439584378719</v>
+        <v>389.5300732727578</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8298,10 +8298,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>421.0860608178839</v>
+        <v>236.3007737122988</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
         <v>600.6529294339219</v>
@@ -8310,7 +8310,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8532,13 +8532,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>217.0424937332492</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425325</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566041</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425325</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>605.4165828750009</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425325</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566041</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9483,10 +9483,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>482.0924488944979</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828750009</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -11154,7 +11154,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11388,7 +11388,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654878</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2012677100158</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.25362321325565</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479852</v>
+        <v>33.99214107688351</v>
       </c>
       <c r="W11" t="n">
         <v>267.0151234259421</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586887</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.82535758250314</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790363</v>
       </c>
       <c r="D13" t="n">
-        <v>59.646716825482</v>
+        <v>25.08477421573994</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126147</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944777</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348602</v>
+        <v>65.88446135348603</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673268</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.9527062374451</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.48624914141182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654879</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100158</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436309</v>
+        <v>194.3145026488811</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>93.46222820091671</v>
       </c>
       <c r="T14" t="n">
-        <v>130.2208993912661</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479852</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>88.81615270004249</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790364</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548203</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348605</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.1321061567327</v>
       </c>
       <c r="S16" t="n">
         <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>138.9527062374451</v>
+        <v>134.6882523937073</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
-        <v>119.1255264616399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.135245737114896e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.147182855075665e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>999998.4819591764</v>
+        <v>999998.4819591762</v>
       </c>
     </row>
     <row r="6">
@@ -26314,25 +26314,25 @@
         <v>191906.0151235456</v>
       </c>
       <c r="C2" t="n">
+        <v>191906.0151235455</v>
+      </c>
+      <c r="D2" t="n">
         <v>191906.0151235456</v>
       </c>
-      <c r="D2" t="n">
-        <v>191906.0151235455</v>
-      </c>
       <c r="E2" t="n">
-        <v>166666.4136598626</v>
+        <v>166666.4136598627</v>
       </c>
       <c r="F2" t="n">
-        <v>166666.4136598627</v>
+        <v>166666.4136598625</v>
       </c>
       <c r="G2" t="n">
         <v>191906.0151235452</v>
       </c>
       <c r="H2" t="n">
+        <v>191906.0151235452</v>
+      </c>
+      <c r="I2" t="n">
         <v>191906.0151235451</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191906.0151235452</v>
       </c>
       <c r="J2" t="n">
         <v>191906.0151235451</v>
@@ -26344,13 +26344,13 @@
         <v>191906.0151235457</v>
       </c>
       <c r="M2" t="n">
-        <v>191906.0151235452</v>
+        <v>191906.0151235451</v>
       </c>
       <c r="N2" t="n">
+        <v>191906.015123545</v>
+      </c>
+      <c r="O2" t="n">
         <v>191906.0151235451</v>
-      </c>
-      <c r="O2" t="n">
-        <v>191906.015123545</v>
       </c>
       <c r="P2" t="n">
         <v>191906.0151235452</v>
@@ -26390,7 +26390,7 @@
         <v>210668.4794422431</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>65879.57388207647</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732346</v>
+        <v>43541.1689073235</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>194229.0330603503</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
         <v>118181.7253353294</v>
@@ -26457,7 +26457,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-231511.9489201211</v>
       </c>
       <c r="C6" t="n">
-        <v>-65982.03546947049</v>
+        <v>-65982.03546947052</v>
       </c>
       <c r="D6" t="n">
-        <v>-69178.81705540605</v>
+        <v>-69178.81705540596</v>
       </c>
       <c r="E6" t="n">
-        <v>-105468.1004068399</v>
+        <v>-105720.4964214766</v>
       </c>
       <c r="F6" t="n">
-        <v>1922.700668923746</v>
+        <v>1670.304654286773</v>
       </c>
       <c r="G6" t="n">
         <v>-95907.60849127617</v>
       </c>
       <c r="H6" t="n">
-        <v>-36519.92230933694</v>
+        <v>-36519.92230933682</v>
       </c>
       <c r="I6" t="n">
-        <v>-36519.92230933686</v>
+        <v>-36519.92230933692</v>
       </c>
       <c r="J6" t="n">
-        <v>-253589.2921503186</v>
+        <v>-253589.2921503187</v>
       </c>
       <c r="K6" t="n">
         <v>-42920.81270807559</v>
       </c>
       <c r="L6" t="n">
-        <v>-107407.581215343</v>
+        <v>-107407.5812153431</v>
       </c>
       <c r="M6" t="n">
-        <v>-60002.43163390248</v>
+        <v>-60002.43163390257</v>
       </c>
       <c r="N6" t="n">
-        <v>-36519.92230933692</v>
+        <v>-36519.92230933698</v>
       </c>
       <c r="O6" t="n">
-        <v>-80061.09121666045</v>
+        <v>-80061.0912166604</v>
       </c>
       <c r="P6" t="n">
-        <v>-36519.92230933678</v>
+        <v>-36519.92230933683</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F2" t="n">
         <v>91.89445741503286</v>
@@ -26823,10 +26823,10 @@
         <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415432</v>
+        <v>54.42646113415437</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>82.34946735259558</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415432</v>
+        <v>54.42646113415437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415432</v>
+        <v>54.42646113415437</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.6210163539065</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>224.9251259364103</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>100.7228590813678</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.29163461832582</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.02209548742064</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27555,7 +27555,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>184.3624507980711</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.440125032005881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>65.49560461667267</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15.35243313056097</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27783,13 +27783,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>11.95181269358974</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>97.07841808837293</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27828,7 +27828,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>151.9502928915018</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>134.968532217019</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>71.91575530782728</v>
       </c>
       <c r="C9" t="n">
-        <v>25.29650434289888</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -28014,16 +28014,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>6.138609195814041</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>208.1050729359213</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503289</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>79.49647998155686</v>
       </c>
       <c r="L11" t="n">
-        <v>81.65903375748428</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>91.89445741503289</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="O11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="P11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>14.56549128550284</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855027</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503287</v>
       </c>
     </row>
     <row r="14">
@@ -28348,25 +28348,25 @@
         <v>91.89445741503286</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>91.89445741503286</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>79.49647998155677</v>
+      </c>
+      <c r="M14" t="n">
         <v>91.89445741503286</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>91.89445741503286</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>91.89445741503286</v>
       </c>
       <c r="P14" t="n">
-        <v>79.4964799815566</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>91.89445741503286</v>
@@ -28588,25 +28588,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>116.9787331327021</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>116.9787331327016</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28743,13 +28743,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>59.456666199969</v>
+        <v>106.1422830299219</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28822,10 +28822,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K20" t="n">
-        <v>116.9787331327019</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327017</v>
       </c>
       <c r="R20" t="n">
         <v>89.73190363910518</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.56549128550283</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.56549128550301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28968,19 +28968,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>166.1290651424569</v>
+        <v>165.9232676913869</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I22" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="J22" t="n">
-        <v>67.60101512283697</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29059,19 +29059,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
-        <v>40.58157162934944</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>40.58157162934924</v>
       </c>
       <c r="N23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>166.1290651424569</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29299,7 +29299,7 @@
         <v>128.6610688615784</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615784</v>
+        <v>122.0406069892374</v>
       </c>
       <c r="L26" t="n">
         <v>128.6610688615784</v>
@@ -29314,13 +29314,13 @@
         <v>128.6610688615784</v>
       </c>
       <c r="P26" t="n">
-        <v>83.11144176676453</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Q26" t="n">
         <v>128.6610688615784</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615784</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>128.6610688615784</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>128.6610688615784</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615784</v>
+        <v>106.002642512939</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>128.6610688615784</v>
       </c>
       <c r="P28" t="n">
-        <v>46.54597631297122</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Q28" t="n">
         <v>38.15196793284785</v>
@@ -29545,7 +29545,7 @@
         <v>128.6610688615784</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615784</v>
+        <v>122.0406069892369</v>
       </c>
       <c r="O29" t="n">
         <v>128.6610688615784</v>
@@ -29554,10 +29554,10 @@
         <v>128.6610688615784</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.11144176676351</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615784</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>128.6610688615784</v>
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29697,19 +29697,19 @@
         <v>128.6610688615784</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>128.6610688615784</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
+        <v>15.49354158420847</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>128.6610688615784</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>15.49354158420847</v>
       </c>
       <c r="Q31" t="n">
         <v>128.6610688615784</v>
@@ -29770,7 +29770,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708698</v>
       </c>
       <c r="K32" t="n">
         <v>136.7759284867499</v>
@@ -29785,13 +29785,13 @@
         <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="P32" t="n">
-        <v>30.77413106708656</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
-        <v>115.997114101126</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>18.38847996830916</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.7759284867499</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>116.9787331327011</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>40.58157162934896</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R35" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30168,10 +30168,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30244,19 +30244,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.58157162934938</v>
+        <v>40.58157162934934</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30384,25 +30384,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
-        <v>144.0453821172203</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>59.456666199969</v>
+        <v>82.15199560982134</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30481,31 +30481,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
-        <v>40.58157162934924</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="P41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="C42" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30621,10 +30621,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E43" t="n">
-        <v>166.1290651424569</v>
+        <v>159.063286932391</v>
       </c>
       <c r="F43" t="n">
         <v>166.1290651424569</v>
@@ -30636,7 +30636,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
-        <v>150.2831266452243</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30721,28 +30721,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>116.9787331327008</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>40.5815716293491</v>
-      </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.56549128550395</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30858,13 +30858,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
@@ -30879,10 +30879,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>16.92450921003461</v>
       </c>
       <c r="L46" t="n">
-        <v>46.68561682995335</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>118.3716701834121</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34717,7 +34717,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>43.91755494559376</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>244.141005131162</v>
+        <v>432.9314002896006</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662136</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>106.2671493867154</v>
+        <v>201.6532642216013</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>308.5106272467361</v>
+        <v>123.7253401411511</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
         <v>493.9377883662136</v>
@@ -35030,7 +35030,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>101.5585911716093</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>164.6202597107962</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>322.0625123500243</v>
       </c>
       <c r="L11" t="n">
-        <v>433.0584005099552</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585561</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>474.0473449783821</v>
       </c>
       <c r="O11" t="n">
         <v>399.9798962764813</v>
@@ -35428,10 +35428,10 @@
         <v>322.3559689868038</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>187.2805722499187</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.162553775927691</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117116</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506389</v>
+        <v>32.43779121506387</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
@@ -35577,7 +35577,7 @@
         <v>211.0798171398831</v>
       </c>
       <c r="N13" t="n">
-        <v>211.5129844348313</v>
+        <v>211.5129844348312</v>
       </c>
       <c r="O13" t="n">
         <v>191.3526861985578</v>
@@ -35586,7 +35586,7 @@
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218504</v>
+        <v>53.74248948218502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>164.6202597107961</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>443.2938241675038</v>
+        <v>430.8958467340277</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N14" t="n">
-        <v>474.0473449783821</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
         <v>399.9798962764813</v>
       </c>
       <c r="P14" t="n">
-        <v>309.9579915533275</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
         <v>187.2805722499187</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35732,7 +35732,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133611</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35884,7 +35884,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35893,16 +35893,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>499.1316206960508</v>
+        <v>499.1316206960513</v>
       </c>
       <c r="O17" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117116</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
-        <v>148.3089293554676</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M19" t="n">
         <v>119.1853597248502</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011694</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36139,7 +36139,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.5151799773428</v>
+        <v>212.3648479675875</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233501</v>
       </c>
       <c r="M21" t="n">
-        <v>489.9326803133611</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36264,19 +36264,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.17321671797629</v>
+        <v>14.96741926690624</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I22" t="n">
         <v>23.36805118910868</v>
       </c>
       <c r="J22" t="n">
-        <v>8.144348922867966</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>33.9436239844883</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
-        <v>283.1476039978169</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N23" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
@@ -36376,7 +36376,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
         <v>76.39716150335175</v>
@@ -36595,28 +36595,28 @@
         <v>201.3868711573417</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300458</v>
+        <v>364.6066393577048</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140493</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M26" t="n">
         <v>525.8723479051016</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249276</v>
+        <v>510.8139564249277</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230268</v>
+        <v>436.7465077230269</v>
       </c>
       <c r="P26" t="n">
-        <v>313.5729533385355</v>
+        <v>359.1225804333494</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964642</v>
+        <v>224.0471836964643</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.20440266160944</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>162.6046928460667</v>
       </c>
       <c r="L28" t="n">
-        <v>230.284381387093</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864286</v>
+        <v>225.1880022377893</v>
       </c>
       <c r="N28" t="n">
-        <v>248.2795958813767</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451033</v>
+        <v>228.1192976451034</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1505053312922</v>
+        <v>192.2655978798994</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>525.8723479051016</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249277</v>
+        <v>504.1934945525862</v>
       </c>
       <c r="O29" t="n">
         <v>436.7465077230269</v>
@@ -36850,10 +36850,10 @@
         <v>359.1225804333494</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4975566016494</v>
+        <v>224.0471836964643</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247324</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>162.6046928460667</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870931</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864287</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813768</v>
+        <v>135.1120686040068</v>
       </c>
       <c r="O31" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
-        <v>79.09807060252948</v>
+        <v>192.2655978798994</v>
       </c>
       <c r="Q31" t="n">
         <v>90.50910092873058</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.5017307825132</v>
+        <v>103.4999333628503</v>
       </c>
       <c r="K32" t="n">
         <v>379.3419608552173</v>
@@ -37081,13 +37081,13 @@
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481983</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
-        <v>261.2356426388575</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
         <v>47.04402484764472</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.54044790115696</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>120.0117924938238</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>255.9612882116001</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>256.3944555065482</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>200.3804575050709</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390205</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>359.5447655011686</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907974</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.62924081444126</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251127</v>
+        <v>113.3073739251126</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37680,25 +37680,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
-        <v>1.284368163872038</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>22.69532940985234</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>437.7928506728724</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P41" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -37917,10 +37917,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E43" t="n">
-        <v>15.6401410461626</v>
+        <v>8.574362836096604</v>
       </c>
       <c r="F43" t="n">
         <v>15.17321671797629</v>
@@ -37932,7 +37932,7 @@
         <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
-        <v>7.522112691876044</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.967686464235</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P45" t="n">
         <v>305.147393207775</v>
@@ -38154,13 +38154,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>50.86813319452291</v>
       </c>
       <c r="L46" t="n">
-        <v>148.308929355468</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
